--- a/Financial Engineering 2/mvo.xlsx
+++ b/Financial Engineering 2/mvo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\FinEngineering 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="18195" windowHeight="7425" activeTab="3"/>
   </bookViews>
@@ -116,7 +121,7 @@
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="tau">'riskfree frontier'!$B$25</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -267,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -442,12 +447,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -481,7 +489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -654,6 +661,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BA3-440E-926A-3CB1B49EDE54}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -814,6 +826,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BA3-440E-926A-3CB1B49EDE54}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -858,7 +875,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -897,7 +913,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -911,7 +926,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1004,7 +1018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1039,7 +1053,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2712,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,15 +3141,15 @@
         <v>36</v>
       </c>
       <c r="B22" s="20">
-        <f t="shared" ref="B22:I22" si="0">B4-rf</f>
+        <f>B4-rf</f>
         <v>1.65</v>
       </c>
       <c r="C22" s="20">
-        <f t="shared" si="0"/>
+        <f>C4-rf</f>
         <v>0.25</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B22:I22" si="0">D4-rf</f>
         <v>-7.89</v>
       </c>
       <c r="E22" s="20">
